--- a/data/trans_camb/P25A_9_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_9_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,29</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,79</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,54</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,65</t>
+          <t>-8,16; 4,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 4,77</t>
+          <t>-7,49; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,45; 63,38</t>
+          <t>-5,11; 10,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 0,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 28,04</t>
+          <t>-9,09; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 0,76</t>
+          <t>-7,9; 5,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,72</t>
+          <t>1,93; 19,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 34,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 2,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 3,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 13,18</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>-14,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>982,78%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>106,47%</t>
+          <t>-16,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,52%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,36%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>238,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-14,43%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>79,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 212,11</t>
+          <t>-69,14; 179,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,52; 187,13</t>
+          <t>-67,41; 130,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>425,77; 2404,69</t>
+          <t>-52,07; 304,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 221,35</t>
+          <t>-55,36; 61,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 11,3</t>
+          <t>-45,84; 82,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 23,85</t>
+          <t>9,1; 274,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>122,38; 402,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,88; 44,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; 56,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 187,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,72</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,23</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,62</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,42</t>
+          <t>-3,36; 0,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,17</t>
+          <t>-3,11; -0,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,05; 56,76</t>
+          <t>-1,72; 2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,02; 43,04</t>
+          <t>-2,54; 1,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,53</t>
+          <t>-0,28; 6,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,29</t>
+          <t>-0,78; 4,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,52; 45,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 0,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 2,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 2,99</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-46,83%</t>
+          <t>-65,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-58,54%</t>
+          <t>-68,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2709,8%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>854,96%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,01%</t>
+          <t>62,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1332,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-26,19%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,16; 69,94</t>
+          <t>-93,9; 29,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,07; 41,21</t>
+          <t>-90,65; 18,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1226,77; 6414,98</t>
+          <t>-64,08; 301,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 59,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 117,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>495,57; 1472,65</t>
+          <t>-55,53; 95,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,28; 25,53</t>
+          <t>-14,33; 299,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 60,92</t>
+          <t>-22,16; 241,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>881,02; 2153,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-59,94; 39,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,28; 114,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-21,74; 153,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,42</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,28</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>-0,85</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>39,14</t>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1,63</t>
+          <t>-2,51; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,41</t>
+          <t>-2,21; 0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,2; 81,21</t>
+          <t>-2,79; 0,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,59; 59,72</t>
+          <t>-3,76; 0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,63</t>
+          <t>-3,76; 0,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,31</t>
+          <t>-2,31; 3,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,59; 56,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 0,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 0,38</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 1,39</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,08%</t>
+          <t>-76,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>-34,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2021,99%</t>
+          <t>-75,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-36,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1908,62%</t>
+          <t>-45,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,23%</t>
+          <t>-46,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-45,8%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1906,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-52,97%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-43,24%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1228,49 +1606,79 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 118,02</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 12098,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,37; 74,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,53; 118,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>692,71; 4895,44</t>
+          <t>-81,6; 51,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-87,21; 62,18</t>
+          <t>-82,87; 54,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,78; 42,67</t>
+          <t>-55,87; 187,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>575,03; 4374,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-81,25; 34,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-76,62; 41,8</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-55,92; 128,07</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42,87</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,18</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,71</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,83</t>
+          <t>-3,14; 2,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,37; 54,88</t>
+          <t>-2,22; 3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,73; 35,47</t>
+          <t>-4,32; 2,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,59</t>
+          <t>1,33; 11,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,91; 39,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 2,09</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 6,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,35%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1914,13%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>484,82%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>805,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>62,95%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,62; 56,73</t>
+          <t>-84,71; 209,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,01; 35,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>942,08; 3287,28</t>
+          <t>-70,95; 255,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 24,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>326,07; 703,12</t>
+          <t>-51,09; 54,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 18,3</t>
+          <t>12,24; 188,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>580,2; 1084,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-47,84; 55,35</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 159,39</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 0,77</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 0,42</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 2,05</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 0,52</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 2,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 6,57</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 0,17</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 0,84</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 3,73</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-24,47%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-29,06%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-19,86%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-10,09%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>58,45%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-61,46; 47,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-65,67; 25,92</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-33,68; 125,11</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-44,11; 12,27</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 44,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>26,25; 140,36</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-41,2; 4,81</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-34,1; 24,9</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 104,85</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
